--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_5_15.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_5_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-32183.61768194531</v>
+        <v>-34443.08475037677</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6632862.567171204</v>
+        <v>6632862.567171212</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -665,19 +665,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>277.9144420616215</v>
       </c>
       <c r="H2" t="n">
-        <v>33.37189785449107</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -722,10 +722,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -823,22 +823,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>76.94981712654014</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>189.6120057093364</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -896,10 +896,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -908,13 +908,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>220.6014752818875</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.94182778688864</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1066,10 +1066,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>49.38957925603669</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>224.9913792784362</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>30.63123640052441</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,19 +1187,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>47.19109895698</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>57.5034340851955</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1333,25 +1333,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>58.94036353858989</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>410.9338715566937</v>
       </c>
       <c r="H11" t="n">
-        <v>294.7321536188796</v>
+        <v>294.7321536188795</v>
       </c>
       <c r="I11" t="n">
-        <v>42.04518470759555</v>
+        <v>42.0451847075951</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.4645365582629</v>
+        <v>109.4645365582627</v>
       </c>
       <c r="T11" t="n">
         <v>203.9711388310543</v>
@@ -1464,10 +1464,10 @@
         <v>135.0059677968616</v>
       </c>
       <c r="H12" t="n">
-        <v>89.65963851412518</v>
+        <v>89.65963851412512</v>
       </c>
       <c r="I12" t="n">
-        <v>8.915218264396643</v>
+        <v>8.915218264407649</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>128.264216864854</v>
+        <v>128.2642168648539</v>
       </c>
       <c r="T12" t="n">
         <v>190.7427643629146</v>
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1540,7 +1540,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0312564930841</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>89.17712508496156</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>20.65043168759589</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5722280944081</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2121353820159</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>65.38909960656053</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1622,10 +1622,10 @@
         <v>410.9338715566937</v>
       </c>
       <c r="H14" t="n">
-        <v>294.7321536188796</v>
+        <v>294.7321536188795</v>
       </c>
       <c r="I14" t="n">
-        <v>42.04518470759555</v>
+        <v>42.0451847075951</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.4645365582629</v>
+        <v>109.4645365582627</v>
       </c>
       <c r="T14" t="n">
         <v>203.9711388310543</v>
@@ -1701,10 +1701,10 @@
         <v>135.0059677968616</v>
       </c>
       <c r="H15" t="n">
-        <v>89.65963851412518</v>
+        <v>89.65963851412512</v>
       </c>
       <c r="I15" t="n">
-        <v>8.915218264396643</v>
+        <v>8.91521826439643</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>128.264216864854</v>
+        <v>128.2642168648539</v>
       </c>
       <c r="T15" t="n">
         <v>190.7427643629146</v>
@@ -1774,16 +1774,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>29.4796911452818</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0312564930842</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.803454668018</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.51626366671982</v>
+        <v>96.51626366671967</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,7 +1816,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5722280944081</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2121353820159</v>
@@ -1825,13 +1825,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>127.9425840412755</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634797</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2011,16 +2011,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>145.4210480229351</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0312564930842</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.51626366671982</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>89.17712508496179</v>
       </c>
       <c r="S19" t="n">
-        <v>30.72707658070326</v>
+        <v>189.8639731922165</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2121353820159</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2065,10 +2065,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>65.59862831973967</v>
       </c>
     </row>
     <row r="20">
@@ -2242,10 +2242,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>89.17712508496179</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.8639731922165</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>14.75752970655589</v>
+        <v>219.5722280944081</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2121353820159</v>
+        <v>65.3890996065609</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2415,7 +2415,7 @@
         <v>89.65963851412518</v>
       </c>
       <c r="I24" t="n">
-        <v>8.915218264396643</v>
+        <v>8.915218264397689</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2491,10 +2491,10 @@
         <v>166.0312564930842</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.803454668018</v>
       </c>
       <c r="I25" t="n">
-        <v>96.51626366671982</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,19 +2521,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>64.80409779566394</v>
+        <v>89.17712508496179</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.8639731922165</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5722280944081</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2121353820159</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>22.70036915689025</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2609,7 +2609,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589025</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>163.689844124971</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2725,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2764,7 +2764,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>95.84383925058366</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2810,7 +2810,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2843,7 +2843,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2886,10 +2886,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2959,16 +2959,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>72.59312199405281</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
@@ -3010,13 +3010,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>116.1222167975246</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3184,25 +3184,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>55.26280711493306</v>
       </c>
       <c r="C34" t="n">
-        <v>163.6898441249706</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3235,16 +3235,16 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3281,7 +3281,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873208</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>177.543609122247</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>164.958450038938</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>127.8750013387422</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>144.1455915868793</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>143.1326769632414</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.7374371993384</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.4666438546309</v>
       </c>
       <c r="I37" t="n">
-        <v>20.10749222537522</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>187.4806542717516</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.2605782164789</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>283.9234671459226</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>249.8492722641377</v>
+        <v>249.8492722641381</v>
       </c>
       <c r="W37" t="n">
-        <v>284.2346272769008</v>
+        <v>284.2346272769012</v>
       </c>
       <c r="X37" t="n">
-        <v>223.4212843293469</v>
+        <v>223.4212843293473</v>
       </c>
       <c r="Y37" t="n">
-        <v>216.2962822924045</v>
+        <v>216.2962822924049</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>410.9217256534534</v>
@@ -3521,7 +3521,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3554,7 +3554,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
@@ -3597,10 +3597,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3679,7 +3679,7 @@
         <v>97.77987829572821</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145497</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S40" t="n">
         <v>142.7938887128493</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534538</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
         <v>294.6077643873205</v>
@@ -3916,7 +3916,7 @@
         <v>97.77987829572821</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124638</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S43" t="n">
         <v>142.7938887128493</v>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1267.312047941846</v>
+        <v>864.0386341629926</v>
       </c>
       <c r="C2" t="n">
-        <v>898.3495310014346</v>
+        <v>495.0761172225809</v>
       </c>
       <c r="D2" t="n">
-        <v>898.3495310014346</v>
+        <v>495.0761172225809</v>
       </c>
       <c r="E2" t="n">
-        <v>512.5612784031903</v>
+        <v>495.0761172225809</v>
       </c>
       <c r="F2" t="n">
-        <v>101.5753736135827</v>
+        <v>488.1306164733774</v>
       </c>
       <c r="G2" t="n">
-        <v>87.65196955217361</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4370,10 +4370,10 @@
         <v>1640.777806202926</v>
       </c>
       <c r="X2" t="n">
-        <v>1267.312047941846</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="Y2" t="n">
-        <v>1267.312047941846</v>
+        <v>1250.638474227114</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>471.4038777286579</v>
+        <v>507.1847865657769</v>
       </c>
       <c r="C4" t="n">
-        <v>471.4038777286579</v>
+        <v>507.1847865657769</v>
       </c>
       <c r="D4" t="n">
-        <v>471.4038777286579</v>
+        <v>507.1847865657769</v>
       </c>
       <c r="E4" t="n">
-        <v>471.4038777286579</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="F4" t="n">
-        <v>471.4038777286579</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="G4" t="n">
-        <v>393.6767897220517</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545819</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4516,22 +4516,22 @@
         <v>698.7120650600561</v>
       </c>
       <c r="T4" t="n">
-        <v>471.4038777286579</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U4" t="n">
-        <v>471.4038777286579</v>
+        <v>507.1847865657769</v>
       </c>
       <c r="V4" t="n">
-        <v>471.4038777286579</v>
+        <v>507.1847865657769</v>
       </c>
       <c r="W4" t="n">
-        <v>471.4038777286579</v>
+        <v>507.1847865657769</v>
       </c>
       <c r="X4" t="n">
-        <v>471.4038777286579</v>
+        <v>507.1847865657769</v>
       </c>
       <c r="Y4" t="n">
-        <v>471.4038777286579</v>
+        <v>507.1847865657769</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1662.48357412947</v>
+        <v>1954.241103772296</v>
       </c>
       <c r="C5" t="n">
-        <v>1662.48357412947</v>
+        <v>1585.278586831885</v>
       </c>
       <c r="D5" t="n">
-        <v>1662.48357412947</v>
+        <v>1227.012888225134</v>
       </c>
       <c r="E5" t="n">
-        <v>1276.695321531225</v>
+        <v>841.2246356268899</v>
       </c>
       <c r="F5" t="n">
-        <v>865.7094167416178</v>
+        <v>430.2387308372824</v>
       </c>
       <c r="G5" t="n">
-        <v>447.7456086398047</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>120.5508886758075</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>1662.48357412947</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W5" t="n">
-        <v>1662.48357412947</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X5" t="n">
-        <v>1662.48357412947</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="Y5" t="n">
-        <v>1662.48357412947</v>
+        <v>1954.241103772296</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4665,22 +4665,22 @@
         <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>211.6913543878343</v>
+        <v>222.942782082032</v>
       </c>
       <c r="C7" t="n">
-        <v>211.6913543878343</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D7" t="n">
-        <v>211.6913543878343</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E7" t="n">
-        <v>211.6913543878343</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F7" t="n">
-        <v>211.6913543878343</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4747,28 +4747,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>678.2405203114477</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>678.2405203114477</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>450.9323329800494</v>
       </c>
       <c r="U7" t="n">
-        <v>438.9553738610022</v>
+        <v>450.9323329800494</v>
       </c>
       <c r="V7" t="n">
-        <v>211.6913543878343</v>
+        <v>450.9323329800494</v>
       </c>
       <c r="W7" t="n">
-        <v>211.6913543878343</v>
+        <v>450.9323329800494</v>
       </c>
       <c r="X7" t="n">
-        <v>211.6913543878343</v>
+        <v>222.942782082032</v>
       </c>
       <c r="Y7" t="n">
-        <v>211.6913543878343</v>
+        <v>222.942782082032</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1348.719328075852</v>
+        <v>1579.049931616194</v>
       </c>
       <c r="C8" t="n">
-        <v>1348.719328075852</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="D8" t="n">
-        <v>990.4536294691011</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E8" t="n">
-        <v>959.5129866402885</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F8" t="n">
-        <v>548.527081850681</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U8" t="n">
-        <v>2443.387305656314</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V8" t="n">
-        <v>2112.324418312743</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W8" t="n">
-        <v>2112.324418312743</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X8" t="n">
-        <v>1738.858660051663</v>
+        <v>1965.649771680316</v>
       </c>
       <c r="Y8" t="n">
-        <v>1348.719328075852</v>
+        <v>1965.649771680316</v>
       </c>
     </row>
     <row r="9">
@@ -4872,22 +4872,22 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M9" t="n">
         <v>1313.210296315296</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>201.8560754027576</v>
+        <v>438.7118141694741</v>
       </c>
       <c r="C10" t="n">
-        <v>201.8560754027576</v>
+        <v>269.7756312415671</v>
       </c>
       <c r="D10" t="n">
-        <v>201.8560754027576</v>
+        <v>269.7756312415671</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="S10" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="T10" t="n">
-        <v>491.0296857481896</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="U10" t="n">
-        <v>201.8560754027576</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="V10" t="n">
-        <v>201.8560754027576</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="W10" t="n">
-        <v>201.8560754027576</v>
+        <v>438.7118141694741</v>
       </c>
       <c r="X10" t="n">
-        <v>201.8560754027576</v>
+        <v>438.7118141694741</v>
       </c>
       <c r="Y10" t="n">
-        <v>201.8560754027576</v>
+        <v>438.7118141694741</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.846544663938</v>
+        <v>2374.846544663937</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.884027723527</v>
+        <v>2005.884027723526</v>
       </c>
       <c r="D11" t="n">
-        <v>1647.618329116777</v>
+        <v>1647.618329116776</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.830076518533</v>
+        <v>1261.830076518532</v>
       </c>
       <c r="F11" t="n">
-        <v>850.8441717289247</v>
+        <v>850.8441717289243</v>
       </c>
       <c r="G11" t="n">
-        <v>435.7594529847897</v>
+        <v>435.7594529847893</v>
       </c>
       <c r="H11" t="n">
-        <v>138.0502069051133</v>
+        <v>138.0502069051128</v>
       </c>
       <c r="I11" t="n">
-        <v>95.58032336208746</v>
+        <v>95.58032336208744</v>
       </c>
       <c r="J11" t="n">
-        <v>283.4388946495274</v>
+        <v>283.4388946495284</v>
       </c>
       <c r="K11" t="n">
-        <v>615.7287139444702</v>
+        <v>615.7287139444727</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.349982118496</v>
+        <v>1478.3499821185</v>
       </c>
       <c r="M11" t="n">
-        <v>2454.788897759313</v>
+        <v>2454.78889775932</v>
       </c>
       <c r="N11" t="n">
-        <v>3432.395618344844</v>
+        <v>3432.395618344853</v>
       </c>
       <c r="O11" t="n">
-        <v>4080.721338735274</v>
+        <v>4080.721338735269</v>
       </c>
       <c r="P11" t="n">
-        <v>4473.766574984809</v>
+        <v>4473.766574984806</v>
       </c>
       <c r="Q11" t="n">
-        <v>4720.754432041042</v>
+        <v>4720.75443204104</v>
       </c>
       <c r="R11" t="n">
-        <v>4779.016168104373</v>
+        <v>4779.016168104372</v>
       </c>
       <c r="S11" t="n">
         <v>4668.445929156632</v>
       </c>
       <c r="T11" t="n">
-        <v>4462.414475791931</v>
+        <v>4462.41447579193</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.883017578637</v>
+        <v>4208.883017578636</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.820130235066</v>
+        <v>3877.820130235065</v>
       </c>
       <c r="W11" t="n">
-        <v>3525.051474964952</v>
+        <v>3525.051474964951</v>
       </c>
       <c r="X11" t="n">
-        <v>3151.585716703872</v>
+        <v>3151.585716703871</v>
       </c>
       <c r="Y11" t="n">
-        <v>2761.44638472806</v>
+        <v>2761.446384728059</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>960.6800021268579</v>
+        <v>960.6800021268689</v>
       </c>
       <c r="C12" t="n">
-        <v>786.2269728457309</v>
+        <v>786.2269728457419</v>
       </c>
       <c r="D12" t="n">
-        <v>637.2925631844796</v>
+        <v>637.2925631844906</v>
       </c>
       <c r="E12" t="n">
-        <v>478.0551081790242</v>
+        <v>478.0551081790351</v>
       </c>
       <c r="F12" t="n">
-        <v>331.5205502059091</v>
+        <v>331.5205502059201</v>
       </c>
       <c r="G12" t="n">
-        <v>195.1508857646348</v>
+        <v>195.1508857646458</v>
       </c>
       <c r="H12" t="n">
-        <v>104.5855943362255</v>
+        <v>104.5855943362366</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58032336208746</v>
+        <v>95.58032336208744</v>
       </c>
       <c r="J12" t="n">
-        <v>188.6497545038409</v>
+        <v>188.6497545038427</v>
       </c>
       <c r="K12" t="n">
-        <v>425.8750609309139</v>
+        <v>425.8750609309168</v>
       </c>
       <c r="L12" t="n">
-        <v>791.1763019983982</v>
+        <v>791.1763019984024</v>
       </c>
       <c r="M12" t="n">
-        <v>1236.822488350012</v>
+        <v>1236.822488350018</v>
       </c>
       <c r="N12" t="n">
-        <v>1708.672248108486</v>
+        <v>1708.672248108494</v>
       </c>
       <c r="O12" t="n">
-        <v>2118.102799755743</v>
+        <v>2118.102799755753</v>
       </c>
       <c r="P12" t="n">
-        <v>2427.373847244437</v>
+        <v>2427.373847244447</v>
       </c>
       <c r="Q12" t="n">
-        <v>2584.194155770509</v>
+        <v>2584.19415577052</v>
       </c>
       <c r="R12" t="n">
-        <v>2584.194155770509</v>
+        <v>2584.19415577052</v>
       </c>
       <c r="S12" t="n">
-        <v>2454.634340755505</v>
+        <v>2454.634340755516</v>
       </c>
       <c r="T12" t="n">
-        <v>2261.964881803066</v>
+        <v>2261.964881803077</v>
       </c>
       <c r="U12" t="n">
-        <v>2033.896603077357</v>
+        <v>2033.896603077368</v>
       </c>
       <c r="V12" t="n">
-        <v>1798.744494845614</v>
+        <v>1798.744494845625</v>
       </c>
       <c r="W12" t="n">
-        <v>1544.507138117413</v>
+        <v>1544.507138117424</v>
       </c>
       <c r="X12" t="n">
-        <v>1336.65563791188</v>
+        <v>1336.655637911891</v>
       </c>
       <c r="Y12" t="n">
-        <v>1128.895339146926</v>
+        <v>1128.895339146937</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>709.4361867826335</v>
+        <v>558.091704334395</v>
       </c>
       <c r="C13" t="n">
-        <v>540.5000038547267</v>
+        <v>558.091704334395</v>
       </c>
       <c r="D13" t="n">
-        <v>390.383364442391</v>
+        <v>558.091704334395</v>
       </c>
       <c r="E13" t="n">
-        <v>242.4702708599979</v>
+        <v>410.1786107520018</v>
       </c>
       <c r="F13" t="n">
-        <v>95.58032336208746</v>
+        <v>263.2886632540916</v>
       </c>
       <c r="G13" t="n">
-        <v>95.58032336208746</v>
+        <v>95.58032336208744</v>
       </c>
       <c r="H13" t="n">
-        <v>95.58032336208746</v>
+        <v>95.58032336208744</v>
       </c>
       <c r="I13" t="n">
-        <v>95.58032336208746</v>
+        <v>95.58032336208744</v>
       </c>
       <c r="J13" t="n">
-        <v>140.3216175627468</v>
+        <v>140.3216175627472</v>
       </c>
       <c r="K13" t="n">
-        <v>343.6821446305111</v>
+        <v>343.6821446305121</v>
       </c>
       <c r="L13" t="n">
-        <v>659.4400393012522</v>
+        <v>659.440039301254</v>
       </c>
       <c r="M13" t="n">
-        <v>1002.751589802365</v>
+        <v>1002.751589802367</v>
       </c>
       <c r="N13" t="n">
-        <v>1343.334575393459</v>
+        <v>1343.334575393463</v>
       </c>
       <c r="O13" t="n">
-        <v>1641.901792025959</v>
+        <v>1641.901792025964</v>
       </c>
       <c r="P13" t="n">
-        <v>1873.856942706699</v>
+        <v>1873.856942706704</v>
       </c>
       <c r="Q13" t="n">
-        <v>1951.015585704211</v>
+        <v>1951.015585704217</v>
       </c>
       <c r="R13" t="n">
-        <v>1951.015585704211</v>
+        <v>1860.937681577993</v>
       </c>
       <c r="S13" t="n">
-        <v>1951.015585704211</v>
+        <v>1840.078659671331</v>
       </c>
       <c r="T13" t="n">
-        <v>1729.22545631592</v>
+        <v>1840.078659671331</v>
       </c>
       <c r="U13" t="n">
-        <v>1729.22545631592</v>
+        <v>1550.97549261879</v>
       </c>
       <c r="V13" t="n">
-        <v>1474.540968110033</v>
+        <v>1296.291004412903</v>
       </c>
       <c r="W13" t="n">
-        <v>1185.123798073073</v>
+        <v>1006.873834375942</v>
       </c>
       <c r="X13" t="n">
-        <v>957.1342471750556</v>
+        <v>778.8842834779251</v>
       </c>
       <c r="Y13" t="n">
-        <v>891.0846516128732</v>
+        <v>558.091704334395</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.846544663938</v>
+        <v>2374.846544663937</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.884027723527</v>
+        <v>2005.884027723525</v>
       </c>
       <c r="D14" t="n">
-        <v>1647.618329116777</v>
+        <v>1647.618329116775</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.830076518533</v>
+        <v>1261.830076518531</v>
       </c>
       <c r="F14" t="n">
-        <v>850.8441717289252</v>
+        <v>850.8441717289234</v>
       </c>
       <c r="G14" t="n">
-        <v>435.7594529847902</v>
+        <v>435.7594529847884</v>
       </c>
       <c r="H14" t="n">
-        <v>138.0502069051136</v>
+        <v>138.0502069051126</v>
       </c>
       <c r="I14" t="n">
-        <v>95.58032336208746</v>
+        <v>95.58032336208744</v>
       </c>
       <c r="J14" t="n">
-        <v>283.4388946495274</v>
+        <v>283.4388946495284</v>
       </c>
       <c r="K14" t="n">
-        <v>615.7287139444702</v>
+        <v>615.7287139444727</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.349982118496</v>
+        <v>1478.3499821185</v>
       </c>
       <c r="M14" t="n">
-        <v>2454.788897759313</v>
+        <v>2454.78889775932</v>
       </c>
       <c r="N14" t="n">
-        <v>3432.395618344844</v>
+        <v>3432.395618344853</v>
       </c>
       <c r="O14" t="n">
-        <v>4080.721338735274</v>
+        <v>4080.721338735269</v>
       </c>
       <c r="P14" t="n">
-        <v>4473.766574984809</v>
+        <v>4473.766574984806</v>
       </c>
       <c r="Q14" t="n">
-        <v>4720.754432041042</v>
+        <v>4720.75443204104</v>
       </c>
       <c r="R14" t="n">
-        <v>4779.016168104373</v>
+        <v>4779.016168104372</v>
       </c>
       <c r="S14" t="n">
-        <v>4668.445929156633</v>
+        <v>4668.445929156631</v>
       </c>
       <c r="T14" t="n">
-        <v>4462.414475791931</v>
+        <v>4462.414475791929</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.883017578637</v>
+        <v>4208.883017578635</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.820130235066</v>
+        <v>3877.820130235064</v>
       </c>
       <c r="W14" t="n">
-        <v>3525.051474964952</v>
+        <v>3525.05147496495</v>
       </c>
       <c r="X14" t="n">
-        <v>3151.585716703872</v>
+        <v>3151.58571670387</v>
       </c>
       <c r="Y14" t="n">
-        <v>2761.44638472806</v>
+        <v>2761.446384728059</v>
       </c>
     </row>
     <row r="15">
@@ -5331,49 +5331,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>960.6800021268579</v>
+        <v>960.6800021268576</v>
       </c>
       <c r="C15" t="n">
-        <v>786.2269728457309</v>
+        <v>786.2269728457306</v>
       </c>
       <c r="D15" t="n">
-        <v>637.2925631844796</v>
+        <v>637.2925631844794</v>
       </c>
       <c r="E15" t="n">
-        <v>478.0551081790242</v>
+        <v>478.0551081790238</v>
       </c>
       <c r="F15" t="n">
-        <v>331.5205502059091</v>
+        <v>331.5205502059088</v>
       </c>
       <c r="G15" t="n">
-        <v>195.1508857646348</v>
+        <v>195.1508857646345</v>
       </c>
       <c r="H15" t="n">
-        <v>104.5855943362255</v>
+        <v>104.5855943362253</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58032336208746</v>
+        <v>95.58032336208744</v>
       </c>
       <c r="J15" t="n">
-        <v>188.6497545038409</v>
+        <v>188.6497545038427</v>
       </c>
       <c r="K15" t="n">
-        <v>425.8750609309139</v>
+        <v>425.8750609309053</v>
       </c>
       <c r="L15" t="n">
-        <v>791.1763019983982</v>
+        <v>791.176301998391</v>
       </c>
       <c r="M15" t="n">
-        <v>1236.822488350012</v>
+        <v>1236.822488350006</v>
       </c>
       <c r="N15" t="n">
-        <v>1708.672248108486</v>
+        <v>1708.672248108483</v>
       </c>
       <c r="O15" t="n">
-        <v>2118.102799755743</v>
+        <v>2118.102799755741</v>
       </c>
       <c r="P15" t="n">
-        <v>2427.373847244437</v>
+        <v>2427.373847244436</v>
       </c>
       <c r="Q15" t="n">
         <v>2584.194155770509</v>
@@ -5394,10 +5394,10 @@
         <v>1798.744494845614</v>
       </c>
       <c r="W15" t="n">
-        <v>1544.507138117413</v>
+        <v>1544.507138117412</v>
       </c>
       <c r="X15" t="n">
-        <v>1336.65563791188</v>
+        <v>1336.655637911879</v>
       </c>
       <c r="Y15" t="n">
         <v>1128.895339146926</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1003.789336227252</v>
+        <v>806.9273622035626</v>
       </c>
       <c r="C16" t="n">
-        <v>834.8531532993454</v>
+        <v>637.9911792756557</v>
       </c>
       <c r="D16" t="n">
-        <v>684.7365138870097</v>
+        <v>487.8745398633199</v>
       </c>
       <c r="E16" t="n">
-        <v>536.8234203046165</v>
+        <v>339.9614462809268</v>
       </c>
       <c r="F16" t="n">
-        <v>507.0459545013016</v>
+        <v>193.0714987830164</v>
       </c>
       <c r="G16" t="n">
-        <v>339.3376146092974</v>
+        <v>193.0714987830164</v>
       </c>
       <c r="H16" t="n">
-        <v>193.0714987830166</v>
+        <v>193.0714987830164</v>
       </c>
       <c r="I16" t="n">
-        <v>95.58032336208746</v>
+        <v>95.58032336208744</v>
       </c>
       <c r="J16" t="n">
-        <v>140.3216175627468</v>
+        <v>140.3216175627472</v>
       </c>
       <c r="K16" t="n">
-        <v>343.6821446305111</v>
+        <v>343.682144630512</v>
       </c>
       <c r="L16" t="n">
-        <v>659.4400393012522</v>
+        <v>659.4400393012539</v>
       </c>
       <c r="M16" t="n">
-        <v>1002.751589802365</v>
+        <v>1002.751589802367</v>
       </c>
       <c r="N16" t="n">
-        <v>1343.334575393459</v>
+        <v>1343.334575393463</v>
       </c>
       <c r="O16" t="n">
-        <v>1641.901792025959</v>
+        <v>1641.901792025964</v>
       </c>
       <c r="P16" t="n">
-        <v>1873.856942706699</v>
+        <v>1873.856942706704</v>
       </c>
       <c r="Q16" t="n">
-        <v>1951.015585704211</v>
+        <v>1951.015585704217</v>
       </c>
       <c r="R16" t="n">
-        <v>1951.015585704211</v>
+        <v>1951.015585704217</v>
       </c>
       <c r="S16" t="n">
-        <v>1951.015585704211</v>
+        <v>1951.015585704217</v>
       </c>
       <c r="T16" t="n">
-        <v>1729.22545631592</v>
+        <v>1951.015585704217</v>
       </c>
       <c r="U16" t="n">
-        <v>1440.122289263379</v>
+        <v>1661.912418651676</v>
       </c>
       <c r="V16" t="n">
-        <v>1185.437801057492</v>
+        <v>1407.227930445789</v>
       </c>
       <c r="W16" t="n">
-        <v>1185.437801057492</v>
+        <v>1117.810760408828</v>
       </c>
       <c r="X16" t="n">
-        <v>1185.437801057492</v>
+        <v>1117.810760408828</v>
       </c>
       <c r="Y16" t="n">
-        <v>1185.437801057492</v>
+        <v>988.5758270338023</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.846544663939</v>
+        <v>2374.846544663938</v>
       </c>
       <c r="C17" t="n">
         <v>2005.884027723527</v>
       </c>
       <c r="D17" t="n">
-        <v>1647.618329116777</v>
+        <v>1647.618329116776</v>
       </c>
       <c r="E17" t="n">
         <v>1261.830076518532</v>
       </c>
       <c r="F17" t="n">
-        <v>850.8441717289247</v>
+        <v>850.8441717289245</v>
       </c>
       <c r="G17" t="n">
         <v>435.7594529847897</v>
@@ -5510,55 +5510,55 @@
         <v>138.0502069051133</v>
       </c>
       <c r="I17" t="n">
-        <v>95.58032336208746</v>
+        <v>95.58032336208744</v>
       </c>
       <c r="J17" t="n">
-        <v>450.8445436698804</v>
+        <v>283.4388946495274</v>
       </c>
       <c r="K17" t="n">
-        <v>901.3414530069751</v>
+        <v>615.7287139444702</v>
       </c>
       <c r="L17" t="n">
-        <v>1350.478118776055</v>
+        <v>1248.737035753495</v>
       </c>
       <c r="M17" t="n">
-        <v>2326.917034416872</v>
+        <v>2225.175951394313</v>
       </c>
       <c r="N17" t="n">
-        <v>3304.523755002403</v>
+        <v>3202.782671979843</v>
       </c>
       <c r="O17" t="n">
-        <v>3805.470242307716</v>
+        <v>4080.721338735274</v>
       </c>
       <c r="P17" t="n">
-        <v>4198.51547855725</v>
+        <v>4473.766574984808</v>
       </c>
       <c r="Q17" t="n">
-        <v>4655.695176366788</v>
+        <v>4720.754432041041</v>
       </c>
       <c r="R17" t="n">
-        <v>4779.016168104373</v>
+        <v>4779.016168104372</v>
       </c>
       <c r="S17" t="n">
-        <v>4668.445929156633</v>
+        <v>4668.445929156632</v>
       </c>
       <c r="T17" t="n">
-        <v>4462.414475791931</v>
+        <v>4462.41447579193</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.883017578637</v>
+        <v>4208.883017578636</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.820130235066</v>
+        <v>3877.820130235065</v>
       </c>
       <c r="W17" t="n">
-        <v>3525.051474964952</v>
+        <v>3525.051474964951</v>
       </c>
       <c r="X17" t="n">
-        <v>3151.585716703872</v>
+        <v>3151.585716703871</v>
       </c>
       <c r="Y17" t="n">
-        <v>2761.446384728061</v>
+        <v>2761.446384728059</v>
       </c>
     </row>
     <row r="18">
@@ -5568,49 +5568,49 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>960.6800021268582</v>
+        <v>960.6800021268579</v>
       </c>
       <c r="C18" t="n">
-        <v>786.2269728457312</v>
+        <v>786.2269728457309</v>
       </c>
       <c r="D18" t="n">
-        <v>637.2925631844801</v>
+        <v>637.2925631844796</v>
       </c>
       <c r="E18" t="n">
-        <v>478.0551081790245</v>
+        <v>478.0551081790242</v>
       </c>
       <c r="F18" t="n">
-        <v>331.5205502059096</v>
+        <v>331.5205502059091</v>
       </c>
       <c r="G18" t="n">
-        <v>195.1508857646352</v>
+        <v>195.1508857646348</v>
       </c>
       <c r="H18" t="n">
-        <v>104.585594336226</v>
+        <v>104.5855943362255</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58032336208746</v>
+        <v>95.58032336208744</v>
       </c>
       <c r="J18" t="n">
-        <v>188.6497545038417</v>
+        <v>188.6497545038409</v>
       </c>
       <c r="K18" t="n">
-        <v>425.8750609309145</v>
+        <v>425.8750609309139</v>
       </c>
       <c r="L18" t="n">
-        <v>791.1763019983989</v>
+        <v>791.1763019983982</v>
       </c>
       <c r="M18" t="n">
-        <v>1236.822488350013</v>
+        <v>1236.822488350012</v>
       </c>
       <c r="N18" t="n">
-        <v>1708.672248108487</v>
+        <v>1708.672248108486</v>
       </c>
       <c r="O18" t="n">
-        <v>2118.102799755744</v>
+        <v>2118.102799755743</v>
       </c>
       <c r="P18" t="n">
-        <v>2427.373847244438</v>
+        <v>2427.373847244437</v>
       </c>
       <c r="Q18" t="n">
         <v>2584.194155770509</v>
@@ -5628,7 +5628,7 @@
         <v>2033.896603077357</v>
       </c>
       <c r="V18" t="n">
-        <v>1798.744494845615</v>
+        <v>1798.744494845614</v>
       </c>
       <c r="W18" t="n">
         <v>1544.507138117413</v>
@@ -5647,31 +5647,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>637.9911792756558</v>
+        <v>877.1445266746417</v>
       </c>
       <c r="C19" t="n">
-        <v>637.9911792756558</v>
+        <v>708.2083437467348</v>
       </c>
       <c r="D19" t="n">
-        <v>487.8745398633201</v>
+        <v>558.0917043343991</v>
       </c>
       <c r="E19" t="n">
-        <v>339.9614462809269</v>
+        <v>410.178610752006</v>
       </c>
       <c r="F19" t="n">
-        <v>193.0714987830166</v>
+        <v>263.2886632540917</v>
       </c>
       <c r="G19" t="n">
-        <v>193.0714987830166</v>
+        <v>95.58032336208744</v>
       </c>
       <c r="H19" t="n">
-        <v>193.0714987830166</v>
+        <v>95.58032336208744</v>
       </c>
       <c r="I19" t="n">
-        <v>95.58032336208746</v>
+        <v>95.58032336208744</v>
       </c>
       <c r="J19" t="n">
-        <v>140.3216175627469</v>
+        <v>140.3216175627468</v>
       </c>
       <c r="K19" t="n">
         <v>343.6821446305111</v>
@@ -5683,10 +5683,10 @@
         <v>1002.751589802365</v>
       </c>
       <c r="N19" t="n">
-        <v>1343.334575393459</v>
+        <v>1343.33457539346</v>
       </c>
       <c r="O19" t="n">
-        <v>1641.901792025959</v>
+        <v>1641.90179202596</v>
       </c>
       <c r="P19" t="n">
         <v>1873.856942706699</v>
@@ -5695,28 +5695,28 @@
         <v>1951.015585704212</v>
       </c>
       <c r="R19" t="n">
-        <v>1951.015585704212</v>
+        <v>1860.937681577988</v>
       </c>
       <c r="S19" t="n">
-        <v>1919.978134612592</v>
+        <v>1669.155890474739</v>
       </c>
       <c r="T19" t="n">
-        <v>1919.978134612592</v>
+        <v>1669.155890474739</v>
       </c>
       <c r="U19" t="n">
-        <v>1630.874967560051</v>
+        <v>1669.155890474739</v>
       </c>
       <c r="V19" t="n">
-        <v>1376.190479354164</v>
+        <v>1414.471402268852</v>
       </c>
       <c r="W19" t="n">
-        <v>1086.773309317203</v>
+        <v>1125.054232231891</v>
       </c>
       <c r="X19" t="n">
-        <v>858.7837584191859</v>
+        <v>1125.054232231891</v>
       </c>
       <c r="Y19" t="n">
-        <v>637.9911792756558</v>
+        <v>1058.792991504881</v>
       </c>
     </row>
     <row r="20">
@@ -5741,13 +5741,13 @@
         <v>850.8441717289243</v>
       </c>
       <c r="G20" t="n">
-        <v>435.7594529847894</v>
+        <v>435.7594529847897</v>
       </c>
       <c r="H20" t="n">
         <v>138.0502069051133</v>
       </c>
       <c r="I20" t="n">
-        <v>95.58032336208746</v>
+        <v>95.58032336208744</v>
       </c>
       <c r="J20" t="n">
         <v>283.4388946495274</v>
@@ -5756,25 +5756,25 @@
         <v>615.7287139444702</v>
       </c>
       <c r="L20" t="n">
-        <v>1248.737035753496</v>
+        <v>1478.349982118496</v>
       </c>
       <c r="M20" t="n">
-        <v>2225.175951394313</v>
+        <v>2454.788897759313</v>
       </c>
       <c r="N20" t="n">
-        <v>3202.782671979844</v>
+        <v>3432.395618344844</v>
       </c>
       <c r="O20" t="n">
         <v>4080.721338735274</v>
       </c>
       <c r="P20" t="n">
-        <v>4473.766574984809</v>
+        <v>4473.766574984808</v>
       </c>
       <c r="Q20" t="n">
-        <v>4720.754432041042</v>
+        <v>4720.754432041041</v>
       </c>
       <c r="R20" t="n">
-        <v>4779.016168104373</v>
+        <v>4779.016168104372</v>
       </c>
       <c r="S20" t="n">
         <v>4668.445929156632</v>
@@ -5805,46 +5805,46 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>960.6800021268579</v>
+        <v>960.6800021268577</v>
       </c>
       <c r="C21" t="n">
-        <v>786.2269728457309</v>
+        <v>786.2269728457308</v>
       </c>
       <c r="D21" t="n">
-        <v>637.2925631844796</v>
+        <v>637.2925631844794</v>
       </c>
       <c r="E21" t="n">
-        <v>478.0551081790242</v>
+        <v>478.0551081790238</v>
       </c>
       <c r="F21" t="n">
-        <v>331.5205502059091</v>
+        <v>331.5205502059089</v>
       </c>
       <c r="G21" t="n">
-        <v>195.1508857646348</v>
+        <v>195.1508857646347</v>
       </c>
       <c r="H21" t="n">
         <v>104.5855943362255</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58032336208746</v>
+        <v>95.58032336208744</v>
       </c>
       <c r="J21" t="n">
-        <v>188.6497545038421</v>
+        <v>188.6497545038416</v>
       </c>
       <c r="K21" t="n">
-        <v>425.8750609309139</v>
+        <v>425.8750609309147</v>
       </c>
       <c r="L21" t="n">
-        <v>791.1763019983982</v>
+        <v>791.1763019983989</v>
       </c>
       <c r="M21" t="n">
         <v>1236.822488350012</v>
       </c>
       <c r="N21" t="n">
-        <v>1708.672248108486</v>
+        <v>1708.672248108487</v>
       </c>
       <c r="O21" t="n">
-        <v>2118.102799755743</v>
+        <v>2118.102799755744</v>
       </c>
       <c r="P21" t="n">
         <v>2427.373847244437</v>
@@ -5884,46 +5884,46 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>411.4064537879048</v>
+        <v>709.4361867826335</v>
       </c>
       <c r="C22" t="n">
-        <v>242.4702708599978</v>
+        <v>540.5000038547266</v>
       </c>
       <c r="D22" t="n">
-        <v>242.4702708599978</v>
+        <v>390.3833644423909</v>
       </c>
       <c r="E22" t="n">
         <v>242.4702708599978</v>
       </c>
       <c r="F22" t="n">
-        <v>95.58032336208747</v>
+        <v>95.58032336208746</v>
       </c>
       <c r="G22" t="n">
-        <v>95.58032336208747</v>
+        <v>95.58032336208746</v>
       </c>
       <c r="H22" t="n">
-        <v>95.58032336208747</v>
+        <v>95.58032336208746</v>
       </c>
       <c r="I22" t="n">
-        <v>95.58032336208747</v>
+        <v>95.58032336208746</v>
       </c>
       <c r="J22" t="n">
-        <v>140.3216175627467</v>
+        <v>140.3216175627469</v>
       </c>
       <c r="K22" t="n">
-        <v>343.6821446305109</v>
+        <v>343.6821446305111</v>
       </c>
       <c r="L22" t="n">
-        <v>659.440039301252</v>
+        <v>659.4400393012522</v>
       </c>
       <c r="M22" t="n">
         <v>1002.751589802365</v>
       </c>
       <c r="N22" t="n">
-        <v>1343.334575393459</v>
+        <v>1343.33457539346</v>
       </c>
       <c r="O22" t="n">
-        <v>1641.901792025959</v>
+        <v>1641.90179202596</v>
       </c>
       <c r="P22" t="n">
         <v>1873.856942706699</v>
@@ -5932,28 +5932,28 @@
         <v>1951.015585704212</v>
       </c>
       <c r="R22" t="n">
-        <v>1860.937681577988</v>
+        <v>1951.015585704212</v>
       </c>
       <c r="S22" t="n">
-        <v>1669.155890474739</v>
+        <v>1951.015585704212</v>
       </c>
       <c r="T22" t="n">
-        <v>1654.249294811551</v>
+        <v>1729.225456315921</v>
       </c>
       <c r="U22" t="n">
-        <v>1365.146127759009</v>
+        <v>1663.175860753738</v>
       </c>
       <c r="V22" t="n">
-        <v>1110.461639553122</v>
+        <v>1408.491372547851</v>
       </c>
       <c r="W22" t="n">
-        <v>821.0444695161619</v>
+        <v>1119.074202510891</v>
       </c>
       <c r="X22" t="n">
-        <v>593.0549186181445</v>
+        <v>891.0846516128732</v>
       </c>
       <c r="Y22" t="n">
-        <v>593.0549186181445</v>
+        <v>891.0846516128732</v>
       </c>
     </row>
     <row r="23">
@@ -5963,28 +5963,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.846544663937</v>
+        <v>2374.846544663939</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.884027723526</v>
+        <v>2005.884027723527</v>
       </c>
       <c r="D23" t="n">
-        <v>1647.618329116776</v>
+        <v>1647.618329116777</v>
       </c>
       <c r="E23" t="n">
         <v>1261.830076518532</v>
       </c>
       <c r="F23" t="n">
-        <v>850.8441717289243</v>
+        <v>850.8441717289247</v>
       </c>
       <c r="G23" t="n">
-        <v>435.7594529847893</v>
+        <v>435.7594529847897</v>
       </c>
       <c r="H23" t="n">
         <v>138.0502069051133</v>
       </c>
       <c r="I23" t="n">
-        <v>95.58032336208746</v>
+        <v>95.58032336208744</v>
       </c>
       <c r="J23" t="n">
         <v>283.4388946495274</v>
@@ -5993,10 +5993,10 @@
         <v>615.7287139444702</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.349982118496</v>
+        <v>1248.737035753496</v>
       </c>
       <c r="M23" t="n">
-        <v>2454.788897759313</v>
+        <v>2225.175951394313</v>
       </c>
       <c r="N23" t="n">
         <v>3202.782671979844</v>
@@ -6014,25 +6014,25 @@
         <v>4779.016168104373</v>
       </c>
       <c r="S23" t="n">
-        <v>4668.445929156632</v>
+        <v>4668.445929156633</v>
       </c>
       <c r="T23" t="n">
-        <v>4462.41447579193</v>
+        <v>4462.414475791931</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.883017578636</v>
+        <v>4208.883017578637</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.820130235065</v>
+        <v>3877.820130235067</v>
       </c>
       <c r="W23" t="n">
-        <v>3525.051474964951</v>
+        <v>3525.051474964952</v>
       </c>
       <c r="X23" t="n">
-        <v>3151.585716703871</v>
+        <v>3151.585716703873</v>
       </c>
       <c r="Y23" t="n">
-        <v>2761.446384728059</v>
+        <v>2761.446384728061</v>
       </c>
     </row>
     <row r="24">
@@ -6042,28 +6042,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>960.6800021268579</v>
+        <v>960.6800021268589</v>
       </c>
       <c r="C24" t="n">
-        <v>786.2269728457309</v>
+        <v>786.2269728457319</v>
       </c>
       <c r="D24" t="n">
-        <v>637.2925631844796</v>
+        <v>637.2925631844806</v>
       </c>
       <c r="E24" t="n">
-        <v>478.0551081790242</v>
+        <v>478.0551081790251</v>
       </c>
       <c r="F24" t="n">
-        <v>331.5205502059091</v>
+        <v>331.5205502059101</v>
       </c>
       <c r="G24" t="n">
-        <v>195.1508857646348</v>
+        <v>195.1508857646358</v>
       </c>
       <c r="H24" t="n">
-        <v>104.5855943362255</v>
+        <v>104.5855943362265</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58032336208746</v>
+        <v>95.58032336208744</v>
       </c>
       <c r="J24" t="n">
         <v>188.6497545038421</v>
@@ -6084,34 +6084,34 @@
         <v>2118.102799755745</v>
       </c>
       <c r="P24" t="n">
-        <v>2427.373847244437</v>
+        <v>2427.373847244438</v>
       </c>
       <c r="Q24" t="n">
-        <v>2584.194155770509</v>
+        <v>2584.19415577051</v>
       </c>
       <c r="R24" t="n">
-        <v>2584.194155770509</v>
+        <v>2584.19415577051</v>
       </c>
       <c r="S24" t="n">
-        <v>2454.634340755505</v>
+        <v>2454.634340755506</v>
       </c>
       <c r="T24" t="n">
-        <v>2261.964881803066</v>
+        <v>2261.964881803067</v>
       </c>
       <c r="U24" t="n">
-        <v>2033.896603077357</v>
+        <v>2033.896603077358</v>
       </c>
       <c r="V24" t="n">
-        <v>1798.744494845614</v>
+        <v>1798.744494845615</v>
       </c>
       <c r="W24" t="n">
-        <v>1544.507138117413</v>
+        <v>1544.507138117414</v>
       </c>
       <c r="X24" t="n">
-        <v>1336.65563791188</v>
+        <v>1336.655637911881</v>
       </c>
       <c r="Y24" t="n">
-        <v>1128.895339146926</v>
+        <v>1128.895339146927</v>
       </c>
     </row>
     <row r="25">
@@ -6121,31 +6121,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>676.6059691008379</v>
+        <v>725.3809095061897</v>
       </c>
       <c r="C25" t="n">
-        <v>507.669786172931</v>
+        <v>556.4447265782828</v>
       </c>
       <c r="D25" t="n">
-        <v>507.669786172931</v>
+        <v>556.4447265782828</v>
       </c>
       <c r="E25" t="n">
-        <v>507.669786172931</v>
+        <v>556.4447265782828</v>
       </c>
       <c r="F25" t="n">
-        <v>360.7798386750208</v>
+        <v>409.5547790803724</v>
       </c>
       <c r="G25" t="n">
-        <v>193.0714987830166</v>
+        <v>241.8464391883683</v>
       </c>
       <c r="H25" t="n">
-        <v>193.0714987830166</v>
+        <v>95.58032336208746</v>
       </c>
       <c r="I25" t="n">
         <v>95.58032336208746</v>
       </c>
       <c r="J25" t="n">
-        <v>140.3216175627468</v>
+        <v>140.3216175627469</v>
       </c>
       <c r="K25" t="n">
         <v>343.6821446305111</v>
@@ -6169,28 +6169,28 @@
         <v>1951.015585704212</v>
       </c>
       <c r="R25" t="n">
-        <v>1885.556901062127</v>
+        <v>1860.937681577988</v>
       </c>
       <c r="S25" t="n">
-        <v>1885.556901062127</v>
+        <v>1669.155890474739</v>
       </c>
       <c r="T25" t="n">
-        <v>1885.556901062127</v>
+        <v>1447.365761086448</v>
       </c>
       <c r="U25" t="n">
-        <v>1596.453734009586</v>
+        <v>1447.365761086448</v>
       </c>
       <c r="V25" t="n">
-        <v>1596.453734009586</v>
+        <v>1424.436095271407</v>
       </c>
       <c r="W25" t="n">
-        <v>1307.036563972625</v>
+        <v>1135.018925234447</v>
       </c>
       <c r="X25" t="n">
-        <v>1079.047013074608</v>
+        <v>907.0293743364294</v>
       </c>
       <c r="Y25" t="n">
-        <v>858.2544339310776</v>
+        <v>907.0293743364294</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551613</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
@@ -6224,52 +6224,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L26" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M26" t="n">
-        <v>2091.135264483406</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N26" t="n">
-        <v>2637.914081542188</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O26" t="n">
-        <v>3517.878731871643</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P26" t="n">
-        <v>4231.233819318589</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q26" t="n">
-        <v>4689.712021827577</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R26" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="27">
@@ -6279,64 +6279,64 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G27" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I27" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K27" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O27" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q27" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S27" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T27" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6345,10 +6345,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="28">
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>432.2000540015823</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C28" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D28" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E28" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F28" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G28" t="n">
         <v>95.56103444839442</v>
@@ -6382,7 +6382,7 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J28" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K28" t="n">
         <v>344.6708498442064</v>
@@ -6397,7 +6397,7 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P28" t="n">
         <v>1878.733169952189</v>
@@ -6412,22 +6412,22 @@
         <v>1764.65758193153</v>
       </c>
       <c r="T28" t="n">
-        <v>1764.65758193153</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U28" t="n">
-        <v>1475.554715057173</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V28" t="n">
-        <v>1220.870226851286</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W28" t="n">
-        <v>931.4530568143257</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X28" t="n">
-        <v>834.6410979753522</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y28" t="n">
-        <v>613.848518831822</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H29" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L29" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M29" t="n">
-        <v>2091.135264483406</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N29" t="n">
-        <v>2637.914081542188</v>
+        <v>3441.080929807095</v>
       </c>
       <c r="O29" t="n">
-        <v>3482.142110232731</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P29" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q29" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="30">
@@ -6516,64 +6516,64 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161924</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
         <v>189.2383039390116</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193585</v>
+        <v>427.5025029193584</v>
       </c>
       <c r="L30" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320238</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O30" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q30" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S30" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T30" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>540.4807149410337</v>
+        <v>780.8371767031248</v>
       </c>
       <c r="C31" t="n">
-        <v>540.4807149410337</v>
+        <v>780.8371767031248</v>
       </c>
       <c r="D31" t="n">
-        <v>390.3640755286979</v>
+        <v>630.720537290789</v>
       </c>
       <c r="E31" t="n">
-        <v>242.4509819463048</v>
+        <v>482.8074437083958</v>
       </c>
       <c r="F31" t="n">
-        <v>95.56103444839441</v>
+        <v>482.8074437083958</v>
       </c>
       <c r="G31" t="n">
-        <v>95.56103444839441</v>
+        <v>315.1046070831148</v>
       </c>
       <c r="H31" t="n">
-        <v>95.56103444839441</v>
+        <v>168.8874203009727</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L31" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927023</v>
       </c>
       <c r="M31" t="n">
         <v>1005.387693892251</v>
@@ -6634,37 +6634,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P31" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S31" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T31" t="n">
-        <v>1542.890966501056</v>
+        <v>1734.576850674229</v>
       </c>
       <c r="U31" t="n">
-        <v>1542.890966501056</v>
+        <v>1734.576850674229</v>
       </c>
       <c r="V31" t="n">
-        <v>1288.206478295169</v>
+        <v>1479.892362468343</v>
       </c>
       <c r="W31" t="n">
-        <v>1170.911309812821</v>
+        <v>1190.475192431382</v>
       </c>
       <c r="X31" t="n">
-        <v>942.9217589148036</v>
+        <v>962.4856415333645</v>
       </c>
       <c r="Y31" t="n">
-        <v>722.1291797712735</v>
+        <v>962.4856415333645</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690174</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749762</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143012</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544768</v>
       </c>
       <c r="F32" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551604</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001573</v>
       </c>
       <c r="H32" t="n">
         <v>137.5579332089257</v>
@@ -6713,37 +6713,37 @@
         <v>2637.914081542188</v>
       </c>
       <c r="O32" t="n">
-        <v>3517.878731871643</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P32" t="n">
-        <v>4231.233819318589</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q32" t="n">
-        <v>4689.712021827577</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R32" t="n">
         <v>4778.05172241972</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946814</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331035</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604872</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261301</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991187</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730107</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="33">
@@ -6753,34 +6753,34 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C33" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I33" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390116</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L33" t="n">
         <v>794.2006632320242</v>
@@ -6795,16 +6795,16 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q33" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S33" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T33" t="n">
         <v>2271.877220313403</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>260.9043113423041</v>
+        <v>873.220281864028</v>
       </c>
       <c r="C34" t="n">
-        <v>95.56103444839441</v>
+        <v>704.2840989361212</v>
       </c>
       <c r="D34" t="n">
-        <v>95.56103444839441</v>
+        <v>704.2840989361212</v>
       </c>
       <c r="E34" t="n">
-        <v>95.56103444839441</v>
+        <v>556.371005353728</v>
       </c>
       <c r="F34" t="n">
-        <v>95.56103444839441</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G34" t="n">
-        <v>95.56103444839441</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H34" t="n">
         <v>95.56103444839441</v>
@@ -6859,7 +6859,7 @@
         <v>140.6836668953299</v>
       </c>
       <c r="K34" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L34" t="n">
         <v>661.2306482927024</v>
@@ -6871,37 +6871,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P34" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q34" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>1764.657581931529</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T34" t="n">
-        <v>1542.890966501056</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U34" t="n">
-        <v>1253.788099626699</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V34" t="n">
-        <v>999.1036114208122</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="W34" t="n">
-        <v>709.6864413838516</v>
+        <v>1377.823429193387</v>
       </c>
       <c r="X34" t="n">
-        <v>481.6968904858343</v>
+        <v>1149.833878295369</v>
       </c>
       <c r="Y34" t="n">
-        <v>260.9043113423041</v>
+        <v>929.0412991518391</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6911,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D35" t="n">
         <v>1646.988141143014</v>
@@ -6923,13 +6923,13 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I35" t="n">
         <v>95.56103444839442</v>
@@ -6968,19 +6968,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="36">
@@ -6990,64 +6990,64 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C36" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I36" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193585</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N36" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O36" t="n">
         <v>2125.96131142685</v>
       </c>
       <c r="P36" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q36" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R36" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S36" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T36" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V36" t="n">
         <v>1808.657265216076</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>115.8716326558441</v>
+        <v>990.8295202885665</v>
       </c>
       <c r="C37" t="n">
-        <v>115.8716326558441</v>
+        <v>824.2048232795382</v>
       </c>
       <c r="D37" t="n">
-        <v>115.8716326558441</v>
+        <v>695.0381552606067</v>
       </c>
       <c r="E37" t="n">
-        <v>115.8716326558441</v>
+        <v>549.4365475970922</v>
       </c>
       <c r="F37" t="n">
-        <v>115.8716326558441</v>
+        <v>404.8580860180605</v>
       </c>
       <c r="G37" t="n">
-        <v>115.8716326558441</v>
+        <v>239.466735311658</v>
       </c>
       <c r="H37" t="n">
-        <v>115.8716326558441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I37" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J37" t="n">
-        <v>142.9491542444233</v>
+        <v>142.9491542444229</v>
       </c>
       <c r="K37" t="n">
-        <v>349.2018245423932</v>
+        <v>349.2018245423923</v>
       </c>
       <c r="L37" t="n">
-        <v>668.0271103399828</v>
+        <v>668.0271103399813</v>
       </c>
       <c r="M37" t="n">
-        <v>1014.449643288625</v>
+        <v>1014.449643288623</v>
       </c>
       <c r="N37" t="n">
-        <v>1358.123507343583</v>
+        <v>1358.123507343581</v>
       </c>
       <c r="O37" t="n">
-        <v>1659.71859361309</v>
+        <v>1659.718593613087</v>
       </c>
       <c r="P37" t="n">
-        <v>1894.591581395843</v>
+        <v>1894.591581395839</v>
       </c>
       <c r="Q37" t="n">
-        <v>1974.467364897451</v>
+        <v>1974.467364897447</v>
       </c>
       <c r="R37" t="n">
-        <v>1974.467364897451</v>
+        <v>1974.467364897447</v>
       </c>
       <c r="S37" t="n">
-        <v>1785.092966643156</v>
+        <v>1974.467364897447</v>
       </c>
       <c r="T37" t="n">
-        <v>1565.637837131561</v>
+        <v>1974.467364897447</v>
       </c>
       <c r="U37" t="n">
-        <v>1278.846456176084</v>
+        <v>1974.467364897447</v>
       </c>
       <c r="V37" t="n">
-        <v>1026.473453889076</v>
+        <v>1722.094362610439</v>
       </c>
       <c r="W37" t="n">
-        <v>739.3677697709941</v>
+        <v>1434.988678492357</v>
       </c>
       <c r="X37" t="n">
-        <v>513.6897047918558</v>
+        <v>1209.310613513218</v>
       </c>
       <c r="Y37" t="n">
-        <v>295.2086115672048</v>
+        <v>990.8295202885665</v>
       </c>
     </row>
     <row r="38">
@@ -7151,13 +7151,13 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D38" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F38" t="n">
         <v>850.213983755162</v>
@@ -7172,19 +7172,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K38" t="n">
-        <v>1106.569146563073</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L38" t="n">
         <v>1557.603359811481</v>
       </c>
       <c r="M38" t="n">
-        <v>2091.135264483406</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N38" t="n">
-        <v>2637.914081542188</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O38" t="n">
         <v>3482.142110232732</v>
@@ -7227,22 +7227,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089894</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H39" t="n">
         <v>114.5683260468565</v>
@@ -7251,13 +7251,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390116</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K39" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
@@ -7293,10 +7293,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="40">
@@ -7321,7 +7321,7 @@
         <v>364.4578361932524</v>
       </c>
       <c r="G40" t="n">
-        <v>244.2046325160446</v>
+        <v>244.2046325160447</v>
       </c>
       <c r="H40" t="n">
         <v>145.4370786819758</v>
@@ -7333,10 +7333,10 @@
         <v>187.1890521477366</v>
       </c>
       <c r="K40" t="n">
-        <v>437.6816203490196</v>
+        <v>437.6816203490195</v>
       </c>
       <c r="L40" t="n">
-        <v>800.7468040499224</v>
+        <v>800.7468040499223</v>
       </c>
       <c r="M40" t="n">
         <v>1191.409234901878</v>
@@ -7354,13 +7354,13 @@
         <v>2328.386548123956</v>
       </c>
       <c r="R40" t="n">
-        <v>2286.005723829557</v>
+        <v>2286.005723829558</v>
       </c>
       <c r="S40" t="n">
         <v>2141.769472604457</v>
       </c>
       <c r="T40" t="n">
-        <v>1967.452490122057</v>
+        <v>1967.452490122056</v>
       </c>
       <c r="U40" t="n">
         <v>1725.799256195773</v>
@@ -7369,13 +7369,13 @@
         <v>1518.56440093796</v>
       </c>
       <c r="W40" t="n">
-        <v>1276.596863849073</v>
+        <v>1276.596863849072</v>
       </c>
       <c r="X40" t="n">
-        <v>1096.056945899129</v>
+        <v>1096.056945899128</v>
       </c>
       <c r="Y40" t="n">
-        <v>922.7139997036718</v>
+        <v>922.7139997036716</v>
       </c>
     </row>
     <row r="41">
@@ -7391,16 +7391,16 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H41" t="n">
         <v>137.5579332089257</v>
@@ -7409,28 +7409,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K41" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L41" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M41" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N41" t="n">
-        <v>3441.080929807096</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O41" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P41" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q41" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R41" t="n">
         <v>4778.051722419721</v>
@@ -7464,43 +7464,43 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I42" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M42" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N42" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O42" t="n">
         <v>2125.96131142685</v>
@@ -7509,7 +7509,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q42" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R42" t="n">
         <v>2593.958107142068</v>
@@ -7518,16 +7518,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T42" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V42" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W42" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X42" t="n">
         <v>1346.568408282342</v>
@@ -7543,31 +7543,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>788.5151678215057</v>
+        <v>788.515167821506</v>
       </c>
       <c r="C43" t="n">
-        <v>667.028617841672</v>
+        <v>667.0286178416724</v>
       </c>
       <c r="D43" t="n">
-        <v>564.3616113774096</v>
+        <v>564.36161137741</v>
       </c>
       <c r="E43" t="n">
-        <v>463.8981507430898</v>
+        <v>463.8981507430904</v>
       </c>
       <c r="F43" t="n">
-        <v>364.4578361932527</v>
+        <v>364.4578361932533</v>
       </c>
       <c r="G43" t="n">
-        <v>244.204632516045</v>
+        <v>244.2046325160455</v>
       </c>
       <c r="H43" t="n">
-        <v>145.4370786819758</v>
+        <v>145.4370786819766</v>
       </c>
       <c r="I43" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J43" t="n">
-        <v>187.1890521477366</v>
+        <v>187.1890521477367</v>
       </c>
       <c r="K43" t="n">
         <v>437.6816203490197</v>
@@ -7591,7 +7591,7 @@
         <v>2328.386548123957</v>
       </c>
       <c r="R43" t="n">
-        <v>2286.005723829558</v>
+        <v>2286.005723829559</v>
       </c>
       <c r="S43" t="n">
         <v>2141.769472604458</v>
@@ -7612,7 +7612,7 @@
         <v>1096.056945899129</v>
       </c>
       <c r="Y43" t="n">
-        <v>922.713999703672</v>
+        <v>922.7139997036725</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551622</v>
       </c>
       <c r="G44" t="n">
         <v>435.1415336001584</v>
@@ -7676,22 +7676,22 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="45">
@@ -7701,64 +7701,64 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C45" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G45" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I45" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K45" t="n">
         <v>427.502502919359</v>
       </c>
       <c r="L45" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O45" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q45" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R45" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S45" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T45" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V45" t="n">
         <v>1808.657265216076</v>
@@ -7767,10 +7767,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="46">
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>788.5151678215058</v>
+        <v>788.515167821505</v>
       </c>
       <c r="C46" t="n">
-        <v>667.0286178416721</v>
+        <v>667.0286178416713</v>
       </c>
       <c r="D46" t="n">
-        <v>564.3616113774098</v>
+        <v>564.361611377409</v>
       </c>
       <c r="E46" t="n">
-        <v>463.89815074309</v>
+        <v>463.8981507430891</v>
       </c>
       <c r="F46" t="n">
-        <v>364.4578361932529</v>
+        <v>364.457836193252</v>
       </c>
       <c r="G46" t="n">
-        <v>244.2046325160446</v>
+        <v>244.2046325160443</v>
       </c>
       <c r="H46" t="n">
         <v>145.4370786819757</v>
@@ -7807,10 +7807,10 @@
         <v>187.1890521477366</v>
       </c>
       <c r="K46" t="n">
-        <v>437.6816203490196</v>
+        <v>437.6816203490197</v>
       </c>
       <c r="L46" t="n">
-        <v>800.7468040499224</v>
+        <v>800.7468040499225</v>
       </c>
       <c r="M46" t="n">
         <v>1191.409234901878</v>
@@ -7825,31 +7825,31 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q46" t="n">
-        <v>2328.386548123957</v>
+        <v>2328.386548123956</v>
       </c>
       <c r="R46" t="n">
         <v>2286.005723829558</v>
       </c>
       <c r="S46" t="n">
-        <v>2141.769472604458</v>
+        <v>2141.769472604457</v>
       </c>
       <c r="T46" t="n">
-        <v>1967.452490122057</v>
+        <v>1967.452490122056</v>
       </c>
       <c r="U46" t="n">
-        <v>1725.799256195774</v>
+        <v>1725.799256195773</v>
       </c>
       <c r="V46" t="n">
-        <v>1518.56440093796</v>
+        <v>1518.564400937959</v>
       </c>
       <c r="W46" t="n">
-        <v>1276.596863849073</v>
+        <v>1276.596863849072</v>
       </c>
       <c r="X46" t="n">
-        <v>1096.056945899129</v>
+        <v>1096.056945899128</v>
       </c>
       <c r="Y46" t="n">
-        <v>922.7139997036722</v>
+        <v>922.7139997036713</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8213,7 +8213,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
         <v>324.1454125711647</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747166</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747169</v>
+        <v>90.64146763747115</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8702,7 +8702,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>148.8679122071902</v>
+        <v>148.8679122071735</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -8763,7 +8763,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>10.12574714858493</v>
+        <v>10.1257471485737</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.5463950602909335</v>
+        <v>0.5463950602905356</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8939,7 +8939,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>148.8679122071902</v>
+        <v>148.8679122071735</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -9006,7 +9006,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>-5.02508507418351e-12</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9027,7 +9027,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.5463950602909335</v>
+        <v>0.5463950602905356</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,13 +9161,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>119.4011010526787</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>185.728945494894</v>
       </c>
       <c r="M17" t="n">
         <v>449.5135334928325</v>
@@ -9176,16 +9176,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9404,7 +9404,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>185.728945494895</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
         <v>449.5135334928325</v>
@@ -9413,7 +9413,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>148.8679122071893</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9641,13 +9641,13 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>185.728945494895</v>
       </c>
       <c r="M23" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>205.4146553564287</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
         <v>380.8001812627454</v>
@@ -9711,7 +9711,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>10.12574714858493</v>
+        <v>10.12574714858387</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -9872,31 +9872,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>29.61882225792094</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,31 +10109,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>344.7025836476829</v>
+        <v>133.253057640027</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10361,7 +10361,7 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>29.61882225792002</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10835,7 +10835,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>344.7025836476838</v>
+        <v>344.7025836476853</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -11057,31 +11057,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>133.2530576400255</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -23413,13 +23413,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0312564930842</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.803454668018</v>
+        <v>144.8034546680179</v>
       </c>
       <c r="I13" t="n">
-        <v>96.51626366671982</v>
+        <v>96.51626366671967</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>89.17712508496179</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.8639731922165</v>
+        <v>169.2135415046207</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5722280944081</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2121353820159</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>153.1955537455343</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23662,13 +23662,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>115.9413568776494</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0312564930841</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.8034546680179</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>89.17712508496179</v>
+        <v>89.17712508496156</v>
       </c>
       <c r="S16" t="n">
-        <v>189.8639731922165</v>
+        <v>189.8639731922164</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5722280944081</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,13 +23713,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>90.64206931081928</v>
       </c>
     </row>
     <row r="17">
@@ -23887,10 +23887,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23902,13 +23902,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0312564930842</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>144.803454668018</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.51626366671982</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,16 +23935,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>89.17712508496179</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>159.1368966115132</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>219.5722280944081</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2121353820159</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,10 +23953,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>152.9860250323551</v>
       </c>
     </row>
     <row r="20">
@@ -24130,10 +24130,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>89.1771250849618</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.8639731922165</v>
       </c>
       <c r="T22" t="n">
-        <v>204.8146983878522</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>220.823035775455</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.803454668018</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.51626366671982</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,19 +24409,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>24.37302728929785</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.8639731922165</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5722280944081</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2121353820159</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>229.4372741669378</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24598,10 +24598,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>16.14213605696628</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24613,7 +24613,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
@@ -24652,7 +24652,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>129.8658161384535</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24847,16 +24847,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>23.75929841578545</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24898,13 +24898,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>170.4007815390664</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,25 +25072,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>124.5691730670042</v>
       </c>
       <c r="C34" t="n">
-        <v>3.556976973657271</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>96.35242040983809</v>
@@ -25123,16 +25123,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25309,28 +25309,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>177.5436091222474</v>
       </c>
       <c r="C37" t="n">
-        <v>164.9584500389376</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>146.3271019585221</v>
+        <v>18.4521006197803</v>
       </c>
       <c r="E37" t="n">
-        <v>144.1455915868789</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>143.132676963241</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>163.737437199338</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.4666438546305</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>73.95655712477262</v>
+        <v>94.06404935014822</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,16 +25357,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>86.64378161035708</v>
+        <v>86.64378161035746</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>187.480654271752</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.2605782164793</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>283.923467145923</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>307890.6636991061</v>
+        <v>307890.6636991062</v>
       </c>
       <c r="C2" t="n">
-        <v>307890.6636991061</v>
+        <v>307890.6636991063</v>
       </c>
       <c r="D2" t="n">
-        <v>307890.6636991063</v>
+        <v>307890.6636991065</v>
       </c>
       <c r="E2" t="n">
         <v>297758.4658390133</v>
       </c>
       <c r="F2" t="n">
-        <v>297758.4658390133</v>
+        <v>297758.4658390134</v>
       </c>
       <c r="G2" t="n">
         <v>297758.4658390133</v>
@@ -26332,28 +26332,28 @@
         <v>297758.4658390133</v>
       </c>
       <c r="I2" t="n">
-        <v>297758.4658390135</v>
+        <v>297758.4658390134</v>
       </c>
       <c r="J2" t="n">
-        <v>297811.3401652374</v>
+        <v>297811.3401652375</v>
       </c>
       <c r="K2" t="n">
+        <v>297811.3401652377</v>
+      </c>
+      <c r="L2" t="n">
         <v>297811.3401652376</v>
       </c>
-      <c r="L2" t="n">
-        <v>297811.3401652377</v>
-      </c>
       <c r="M2" t="n">
-        <v>298302.3495360765</v>
+        <v>298302.3495360762</v>
       </c>
       <c r="N2" t="n">
-        <v>307890.6636991062</v>
+        <v>307890.6636991063</v>
       </c>
       <c r="O2" t="n">
-        <v>307890.6636991063</v>
+        <v>307890.6636991065</v>
       </c>
       <c r="P2" t="n">
-        <v>307890.6636991065</v>
+        <v>307890.6636991064</v>
       </c>
     </row>
     <row r="3">
@@ -26369,16 +26369,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>725022.0883529601</v>
+        <v>725022.088352962</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-6.314743317246519e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>178595.2595245355</v>
+        <v>178595.2595245356</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.62584001373034e-10</v>
       </c>
       <c r="M3" t="n">
-        <v>131533.0976172965</v>
+        <v>131533.0976172961</v>
       </c>
       <c r="N3" t="n">
-        <v>35749.41244712186</v>
+        <v>35749.41244712217</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.540129233035259e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,46 +26415,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183348.686857128</v>
+        <v>183348.6868571279</v>
       </c>
       <c r="C4" t="n">
         <v>183348.686857128</v>
       </c>
       <c r="D4" t="n">
-        <v>183348.686857128</v>
+        <v>183348.6868571279</v>
       </c>
       <c r="E4" t="n">
+        <v>18359.70425226862</v>
+      </c>
+      <c r="F4" t="n">
+        <v>18359.70425226861</v>
+      </c>
+      <c r="G4" t="n">
+        <v>18359.70425226881</v>
+      </c>
+      <c r="H4" t="n">
         <v>18359.70425226884</v>
-      </c>
-      <c r="F4" t="n">
-        <v>18359.70425226884</v>
-      </c>
-      <c r="G4" t="n">
-        <v>18359.70425226883</v>
-      </c>
-      <c r="H4" t="n">
-        <v>18359.70425226883</v>
       </c>
       <c r="I4" t="n">
         <v>18359.70425226883</v>
       </c>
       <c r="J4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231918992</v>
       </c>
       <c r="K4" t="n">
-        <v>18148.49231918993</v>
+        <v>18148.49231918996</v>
       </c>
       <c r="L4" t="n">
         <v>18148.49231918993</v>
       </c>
       <c r="M4" t="n">
-        <v>18901.48044000637</v>
+        <v>18901.48044000625</v>
       </c>
       <c r="N4" t="n">
         <v>33605.65329740898</v>
       </c>
       <c r="O4" t="n">
-        <v>33605.65329740898</v>
+        <v>33605.65329740899</v>
       </c>
       <c r="P4" t="n">
         <v>33605.65329740899</v>
@@ -26473,22 +26473,22 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
-        <v>96332.31363132433</v>
+        <v>96332.31363132437</v>
       </c>
       <c r="F5" t="n">
-        <v>96332.31363132433</v>
+        <v>96332.31363132437</v>
       </c>
       <c r="G5" t="n">
-        <v>96332.31363132433</v>
+        <v>96332.3136313243</v>
       </c>
       <c r="H5" t="n">
-        <v>96332.31363132433</v>
+        <v>96332.3136313243</v>
       </c>
       <c r="I5" t="n">
-        <v>96332.31363132433</v>
+        <v>96332.3136313243</v>
       </c>
       <c r="J5" t="n">
         <v>96383.51825371366</v>
@@ -26500,7 +26500,7 @@
         <v>96383.51825371364</v>
       </c>
       <c r="M5" t="n">
-        <v>96575.89932033076</v>
+        <v>96575.89932033072</v>
       </c>
       <c r="N5" t="n">
         <v>100332.6710141021</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-548284.9804359757</v>
+        <v>-548284.9804359756</v>
       </c>
       <c r="C6" t="n">
-        <v>41682.89877856872</v>
+        <v>41682.8987785689</v>
       </c>
       <c r="D6" t="n">
-        <v>41682.89877856887</v>
+        <v>41682.89877856895</v>
       </c>
       <c r="E6" t="n">
-        <v>-541955.6403975398</v>
+        <v>-542023.1883832756</v>
       </c>
       <c r="F6" t="n">
-        <v>183066.4479554202</v>
+        <v>182998.8999696865</v>
       </c>
       <c r="G6" t="n">
-        <v>183066.4479554201</v>
+        <v>182998.8999696885</v>
       </c>
       <c r="H6" t="n">
-        <v>183066.4479554202</v>
+        <v>182998.8999696862</v>
       </c>
       <c r="I6" t="n">
-        <v>183066.4479554203</v>
+        <v>182998.8999696863</v>
       </c>
       <c r="J6" t="n">
-        <v>4684.070067798239</v>
+        <v>4616.874577572563</v>
       </c>
       <c r="K6" t="n">
-        <v>183279.329592334</v>
+        <v>183212.1341021085</v>
       </c>
       <c r="L6" t="n">
-        <v>183279.3295923341</v>
+        <v>183212.134102108</v>
       </c>
       <c r="M6" t="n">
-        <v>51291.87215844291</v>
+        <v>51227.95006402293</v>
       </c>
       <c r="N6" t="n">
-        <v>138202.9269404732</v>
+        <v>138202.926940473</v>
       </c>
       <c r="O6" t="n">
-        <v>173952.3393875951</v>
+        <v>173952.3393875952</v>
       </c>
       <c r="P6" t="n">
-        <v>173952.3393875954</v>
+        <v>173952.3393875953</v>
       </c>
     </row>
   </sheetData>
@@ -26716,7 +26716,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>2.288371059690252</v>
+        <v>2.288371059689851</v>
       </c>
       <c r="N2" t="n">
         <v>46.97513661859257</v>
@@ -26741,13 +26741,13 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="E3" t="n">
-        <v>1086.755407162287</v>
+        <v>1086.75540716229</v>
       </c>
       <c r="F3" t="n">
-        <v>1086.755407162287</v>
+        <v>1086.75540716229</v>
       </c>
       <c r="G3" t="n">
         <v>1086.755407162287</v>
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1194.754042026093</v>
@@ -26938,10 +26938,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>2.288371059690252</v>
+        <v>2.288371059689851</v>
       </c>
       <c r="N2" t="n">
-        <v>44.68676555890232</v>
+        <v>44.68676555890272</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26963,16 +26963,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>709.0117429452004</v>
+        <v>709.011742945203</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-1.359722420311238e-12</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26984,10 +26984,10 @@
         <v>3.021293431011372</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26996,7 +26996,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.4667692715376</v>
+        <v>520.4667692715373</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.0461613333927</v>
+        <v>674.0461613333928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.4667692715378</v>
+        <v>520.4667692715375</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.4667692715376</v>
+        <v>520.4667692715373</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27385,19 +27385,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>135.8697279591735</v>
       </c>
       <c r="H2" t="n">
-        <v>290.5508749098661</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27442,10 +27442,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27543,22 +27543,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>90.35998513251077</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27588,10 +27588,10 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>96.66986853264129</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27616,10 +27616,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,13 +27628,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>193.1826947389075</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>85.98948845797261</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27786,10 +27786,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
@@ -27819,25 +27819,25 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>97.27561272412117</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>27.14626404539183</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>351.2991336717374</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481165</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27907,19 +27907,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>322.540001721489</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,13 +28011,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>88.93052856137368</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28026,13 +28026,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,25 +28053,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491427</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>166.0947419194944</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28731,7 +28731,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>-7.032208304403592e-13</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2.288371059690252</v>
+        <v>2.288371059689851</v>
       </c>
       <c r="C37" t="n">
-        <v>2.288371059690252</v>
+        <v>2.288371059689851</v>
       </c>
       <c r="D37" t="n">
-        <v>2.288371059690252</v>
+        <v>2.288371059689851</v>
       </c>
       <c r="E37" t="n">
-        <v>2.288371059690252</v>
+        <v>2.288371059689851</v>
       </c>
       <c r="F37" t="n">
-        <v>2.288371059690252</v>
+        <v>2.288371059689851</v>
       </c>
       <c r="G37" t="n">
-        <v>2.288371059690252</v>
+        <v>2.288371059689851</v>
       </c>
       <c r="H37" t="n">
-        <v>2.288371059690252</v>
+        <v>2.288371059689851</v>
       </c>
       <c r="I37" t="n">
-        <v>2.288371059690252</v>
+        <v>2.288371059689851</v>
       </c>
       <c r="J37" t="n">
-        <v>2.288371059690252</v>
+        <v>2.288371059689851</v>
       </c>
       <c r="K37" t="n">
-        <v>2.288371059690252</v>
+        <v>2.288371059689851</v>
       </c>
       <c r="L37" t="n">
-        <v>2.288371059690252</v>
+        <v>2.288371059689851</v>
       </c>
       <c r="M37" t="n">
-        <v>2.288371059690252</v>
+        <v>2.288371059689851</v>
       </c>
       <c r="N37" t="n">
-        <v>2.288371059690252</v>
+        <v>2.288371059689851</v>
       </c>
       <c r="O37" t="n">
-        <v>2.288371059690252</v>
+        <v>2.288371059689851</v>
       </c>
       <c r="P37" t="n">
-        <v>2.288371059690252</v>
+        <v>2.288371059689851</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.288371059690252</v>
+        <v>2.288371059689851</v>
       </c>
       <c r="R37" t="n">
-        <v>2.288371059690252</v>
+        <v>2.288371059689851</v>
       </c>
       <c r="S37" t="n">
-        <v>2.288371059690252</v>
+        <v>2.288371059689851</v>
       </c>
       <c r="T37" t="n">
-        <v>2.288371059690252</v>
+        <v>2.288371059689851</v>
       </c>
       <c r="U37" t="n">
-        <v>2.288371059690252</v>
+        <v>2.288371059689851</v>
       </c>
       <c r="V37" t="n">
-        <v>2.288371059690252</v>
+        <v>2.288371059689851</v>
       </c>
       <c r="W37" t="n">
-        <v>2.288371059690252</v>
+        <v>2.288371059689851</v>
       </c>
       <c r="X37" t="n">
-        <v>2.288371059690252</v>
+        <v>2.288371059689851</v>
       </c>
       <c r="Y37" t="n">
-        <v>2.288371059690252</v>
+        <v>2.288371059689851</v>
       </c>
     </row>
     <row r="38">
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-13</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30232,7 +30232,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.5445733255447</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633803</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473557</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141114</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188919</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034985</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619156</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644446</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302244</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31692,28 +31692,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175849</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383805</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.368865958441351</v>
+        <v>4.368865958441363</v>
       </c>
       <c r="H11" t="n">
-        <v>44.7426484968875</v>
+        <v>44.74264849688762</v>
       </c>
       <c r="I11" t="n">
-        <v>168.4307048628104</v>
+        <v>168.4307048628108</v>
       </c>
       <c r="J11" t="n">
-        <v>370.802037140262</v>
+        <v>370.802037140263</v>
       </c>
       <c r="K11" t="n">
-        <v>555.7361331610845</v>
+        <v>555.7361331610859</v>
       </c>
       <c r="L11" t="n">
-        <v>689.4398147367341</v>
+        <v>689.439814736736</v>
       </c>
       <c r="M11" t="n">
-        <v>767.1346347251655</v>
+        <v>767.1346347251675</v>
       </c>
       <c r="N11" t="n">
-        <v>779.547675129587</v>
+        <v>779.5476751295892</v>
       </c>
       <c r="O11" t="n">
-        <v>736.1047642553358</v>
+        <v>736.1047642553378</v>
       </c>
       <c r="P11" t="n">
-        <v>628.2483859063149</v>
+        <v>628.2483859063166</v>
       </c>
       <c r="Q11" t="n">
-        <v>471.7883737696338</v>
+        <v>471.7883737696351</v>
       </c>
       <c r="R11" t="n">
-        <v>274.4357762619418</v>
+        <v>274.4357762619425</v>
       </c>
       <c r="S11" t="n">
-        <v>99.55553302798239</v>
+        <v>99.55553302798266</v>
       </c>
       <c r="T11" t="n">
-        <v>19.12471073307702</v>
+        <v>19.12471073307708</v>
       </c>
       <c r="U11" t="n">
-        <v>0.349509276675308</v>
+        <v>0.349509276675309</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.33754936634907</v>
+        <v>2.337549366349077</v>
       </c>
       <c r="H12" t="n">
-        <v>22.57580572237129</v>
+        <v>22.57580572237135</v>
       </c>
       <c r="I12" t="n">
-        <v>80.48141458701843</v>
+        <v>80.48141458701865</v>
       </c>
       <c r="J12" t="n">
-        <v>220.8471530724795</v>
+        <v>220.8471530724801</v>
       </c>
       <c r="K12" t="n">
-        <v>377.4629606178672</v>
+        <v>377.4629606178682</v>
       </c>
       <c r="L12" t="n">
-        <v>507.5455323732926</v>
+        <v>507.545532373294</v>
       </c>
       <c r="M12" t="n">
-        <v>592.2816969034463</v>
+        <v>592.2816969034479</v>
       </c>
       <c r="N12" t="n">
-        <v>607.9576310312873</v>
+        <v>607.957631031289</v>
       </c>
       <c r="O12" t="n">
-        <v>556.1624582295526</v>
+        <v>556.1624582295541</v>
       </c>
       <c r="P12" t="n">
-        <v>446.3694048776571</v>
+        <v>446.3694048776583</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.3861261325585</v>
+        <v>298.3861261325593</v>
       </c>
       <c r="R12" t="n">
-        <v>145.133108903673</v>
+        <v>145.1331089036734</v>
       </c>
       <c r="S12" t="n">
-        <v>43.41895423898379</v>
+        <v>43.41895423898391</v>
       </c>
       <c r="T12" t="n">
-        <v>9.421964331906993</v>
+        <v>9.42196433190702</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1537861425229652</v>
+        <v>0.1537861425229656</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.959722865374615</v>
+        <v>1.959722865374621</v>
       </c>
       <c r="H13" t="n">
-        <v>17.4237178394216</v>
+        <v>17.42371783942164</v>
       </c>
       <c r="I13" t="n">
-        <v>58.93421126053845</v>
+        <v>58.93421126053862</v>
       </c>
       <c r="J13" t="n">
-        <v>138.5524065819853</v>
+        <v>138.5524065819857</v>
       </c>
       <c r="K13" t="n">
-        <v>227.6841656317053</v>
+        <v>227.6841656317059</v>
       </c>
       <c r="L13" t="n">
-        <v>291.3573430939679</v>
+        <v>291.3573430939687</v>
       </c>
       <c r="M13" t="n">
-        <v>307.1954669786772</v>
+        <v>307.195466978678</v>
       </c>
       <c r="N13" t="n">
-        <v>299.8910453895539</v>
+        <v>299.8910453895547</v>
       </c>
       <c r="O13" t="n">
-        <v>276.9979191894957</v>
+        <v>276.9979191894965</v>
       </c>
       <c r="P13" t="n">
-        <v>237.0195727358534</v>
+        <v>237.019572735854</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.1000664815053</v>
+        <v>164.1000664815058</v>
       </c>
       <c r="R13" t="n">
-        <v>88.1162662922077</v>
+        <v>88.11626629220792</v>
       </c>
       <c r="S13" t="n">
-        <v>34.15262484475579</v>
+        <v>34.15262484475588</v>
       </c>
       <c r="T13" t="n">
-        <v>8.373361333873355</v>
+        <v>8.373361333873378</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1068939744749792</v>
+        <v>0.1068939744749794</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.368865958441351</v>
+        <v>4.368865958441363</v>
       </c>
       <c r="H14" t="n">
-        <v>44.7426484968875</v>
+        <v>44.74264849688762</v>
       </c>
       <c r="I14" t="n">
-        <v>168.4307048628104</v>
+        <v>168.4307048628108</v>
       </c>
       <c r="J14" t="n">
-        <v>370.802037140262</v>
+        <v>370.802037140263</v>
       </c>
       <c r="K14" t="n">
-        <v>555.7361331610845</v>
+        <v>555.7361331610859</v>
       </c>
       <c r="L14" t="n">
-        <v>689.4398147367341</v>
+        <v>689.439814736736</v>
       </c>
       <c r="M14" t="n">
-        <v>767.1346347251655</v>
+        <v>767.1346347251675</v>
       </c>
       <c r="N14" t="n">
-        <v>779.547675129587</v>
+        <v>779.5476751295892</v>
       </c>
       <c r="O14" t="n">
-        <v>736.1047642553358</v>
+        <v>736.1047642553378</v>
       </c>
       <c r="P14" t="n">
-        <v>628.2483859063149</v>
+        <v>628.2483859063166</v>
       </c>
       <c r="Q14" t="n">
-        <v>471.7883737696338</v>
+        <v>471.7883737696351</v>
       </c>
       <c r="R14" t="n">
-        <v>274.4357762619418</v>
+        <v>274.4357762619425</v>
       </c>
       <c r="S14" t="n">
-        <v>99.55553302798239</v>
+        <v>99.55553302798266</v>
       </c>
       <c r="T14" t="n">
-        <v>19.12471073307702</v>
+        <v>19.12471073307708</v>
       </c>
       <c r="U14" t="n">
-        <v>0.349509276675308</v>
+        <v>0.349509276675309</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.33754936634907</v>
+        <v>2.337549366349077</v>
       </c>
       <c r="H15" t="n">
-        <v>22.57580572237129</v>
+        <v>22.57580572237135</v>
       </c>
       <c r="I15" t="n">
-        <v>80.48141458701843</v>
+        <v>80.48141458701865</v>
       </c>
       <c r="J15" t="n">
-        <v>220.8471530724795</v>
+        <v>220.8471530724801</v>
       </c>
       <c r="K15" t="n">
-        <v>377.4629606178672</v>
+        <v>377.4629606178682</v>
       </c>
       <c r="L15" t="n">
-        <v>507.5455323732926</v>
+        <v>507.545532373294</v>
       </c>
       <c r="M15" t="n">
-        <v>592.2816969034463</v>
+        <v>592.2816969034479</v>
       </c>
       <c r="N15" t="n">
-        <v>607.9576310312873</v>
+        <v>607.957631031289</v>
       </c>
       <c r="O15" t="n">
-        <v>556.1624582295526</v>
+        <v>556.1624582295541</v>
       </c>
       <c r="P15" t="n">
-        <v>446.3694048776571</v>
+        <v>446.3694048776583</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.3861261325585</v>
+        <v>298.3861261325593</v>
       </c>
       <c r="R15" t="n">
-        <v>145.133108903673</v>
+        <v>145.1331089036734</v>
       </c>
       <c r="S15" t="n">
-        <v>43.41895423898379</v>
+        <v>43.41895423898391</v>
       </c>
       <c r="T15" t="n">
-        <v>9.421964331906993</v>
+        <v>9.42196433190702</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1537861425229652</v>
+        <v>0.1537861425229656</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.959722865374615</v>
+        <v>1.959722865374621</v>
       </c>
       <c r="H16" t="n">
-        <v>17.4237178394216</v>
+        <v>17.42371783942164</v>
       </c>
       <c r="I16" t="n">
-        <v>58.93421126053845</v>
+        <v>58.93421126053862</v>
       </c>
       <c r="J16" t="n">
-        <v>138.5524065819853</v>
+        <v>138.5524065819857</v>
       </c>
       <c r="K16" t="n">
-        <v>227.6841656317053</v>
+        <v>227.6841656317059</v>
       </c>
       <c r="L16" t="n">
-        <v>291.3573430939679</v>
+        <v>291.3573430939687</v>
       </c>
       <c r="M16" t="n">
-        <v>307.1954669786772</v>
+        <v>307.195466978678</v>
       </c>
       <c r="N16" t="n">
-        <v>299.8910453895539</v>
+        <v>299.8910453895547</v>
       </c>
       <c r="O16" t="n">
-        <v>276.9979191894957</v>
+        <v>276.9979191894965</v>
       </c>
       <c r="P16" t="n">
-        <v>237.0195727358534</v>
+        <v>237.019572735854</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.1000664815053</v>
+        <v>164.1000664815058</v>
       </c>
       <c r="R16" t="n">
-        <v>88.1162662922077</v>
+        <v>88.11626629220792</v>
       </c>
       <c r="S16" t="n">
-        <v>34.15262484475579</v>
+        <v>34.15262484475588</v>
       </c>
       <c r="T16" t="n">
-        <v>8.373361333873355</v>
+        <v>8.373361333873378</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1068939744749792</v>
+        <v>0.1068939744749794</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I29" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33257,40 +33257,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O30" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33345,16 +33345,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33363,16 +33363,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I38" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33968,40 +33968,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837931</v>
       </c>
       <c r="O39" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34041,13 +34041,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34056,16 +34056,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34074,16 +34074,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34448,7 +34448,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L45" t="n">
         <v>508.9565619138796</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,7 +34933,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181308</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
         <v>297.2230414343419</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245899</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,10 +35331,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713958</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35343,10 +35343,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873154</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>189.7561326135757</v>
+        <v>189.7561326135767</v>
       </c>
       <c r="K11" t="n">
-        <v>335.6462821161039</v>
+        <v>335.6462821161054</v>
       </c>
       <c r="L11" t="n">
-        <v>871.3346143171973</v>
+        <v>871.3346143171992</v>
       </c>
       <c r="M11" t="n">
-        <v>986.3019349907253</v>
+        <v>986.3019349907273</v>
       </c>
       <c r="N11" t="n">
-        <v>987.4815359449802</v>
+        <v>987.4815359449824</v>
       </c>
       <c r="O11" t="n">
-        <v>654.8744650408393</v>
+        <v>654.8744650408246</v>
       </c>
       <c r="P11" t="n">
-        <v>397.0153901510453</v>
+        <v>397.015390151047</v>
       </c>
       <c r="Q11" t="n">
-        <v>249.4826838951843</v>
+        <v>249.4826838951856</v>
       </c>
       <c r="R11" t="n">
-        <v>58.85023844780966</v>
+        <v>58.8502384478104</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.00952640581151</v>
+        <v>94.0095264058134</v>
       </c>
       <c r="K12" t="n">
-        <v>239.6215216435082</v>
+        <v>239.6215216435092</v>
       </c>
       <c r="L12" t="n">
-        <v>368.9911525934185</v>
+        <v>368.9911525934198</v>
       </c>
       <c r="M12" t="n">
-        <v>450.147662981428</v>
+        <v>450.1476629814296</v>
       </c>
       <c r="N12" t="n">
-        <v>476.615918947954</v>
+        <v>476.6159189479557</v>
       </c>
       <c r="O12" t="n">
-        <v>413.5662137851082</v>
+        <v>413.5662137851097</v>
       </c>
       <c r="P12" t="n">
-        <v>312.3949974633269</v>
+        <v>312.3949974633281</v>
       </c>
       <c r="Q12" t="n">
-        <v>158.404352046537</v>
+        <v>158.4043520465378</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.19322646531253</v>
+        <v>45.1932264653129</v>
       </c>
       <c r="K13" t="n">
-        <v>205.4146738058224</v>
+        <v>205.414673805823</v>
       </c>
       <c r="L13" t="n">
-        <v>318.947368354284</v>
+        <v>318.9473683542848</v>
       </c>
       <c r="M13" t="n">
-        <v>346.7793439405178</v>
+        <v>346.7793439405186</v>
       </c>
       <c r="N13" t="n">
-        <v>344.0232177687825</v>
+        <v>344.0232177687833</v>
       </c>
       <c r="O13" t="n">
-        <v>301.5830471035354</v>
+        <v>301.5830471035362</v>
       </c>
       <c r="P13" t="n">
-        <v>234.2981320007469</v>
+        <v>234.2981320007475</v>
       </c>
       <c r="Q13" t="n">
-        <v>77.93802322981092</v>
+        <v>77.93802322981138</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>189.7561326135757</v>
+        <v>189.7561326135767</v>
       </c>
       <c r="K14" t="n">
-        <v>335.6462821161039</v>
+        <v>335.6462821161054</v>
       </c>
       <c r="L14" t="n">
-        <v>871.3346143171973</v>
+        <v>871.3346143171992</v>
       </c>
       <c r="M14" t="n">
-        <v>986.3019349907253</v>
+        <v>986.3019349907273</v>
       </c>
       <c r="N14" t="n">
-        <v>987.4815359449802</v>
+        <v>987.4815359449824</v>
       </c>
       <c r="O14" t="n">
-        <v>654.8744650408393</v>
+        <v>654.8744650408246</v>
       </c>
       <c r="P14" t="n">
-        <v>397.0153901510453</v>
+        <v>397.015390151047</v>
       </c>
       <c r="Q14" t="n">
-        <v>249.4826838951843</v>
+        <v>249.4826838951856</v>
       </c>
       <c r="R14" t="n">
-        <v>58.85023844780966</v>
+        <v>58.8502384478104</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.00952640581151</v>
+        <v>94.0095264058134</v>
       </c>
       <c r="K15" t="n">
-        <v>239.6215216435082</v>
+        <v>239.6215216434976</v>
       </c>
       <c r="L15" t="n">
-        <v>368.9911525934185</v>
+        <v>368.9911525934198</v>
       </c>
       <c r="M15" t="n">
-        <v>450.147662981428</v>
+        <v>450.1476629814296</v>
       </c>
       <c r="N15" t="n">
-        <v>476.615918947954</v>
+        <v>476.6159189479557</v>
       </c>
       <c r="O15" t="n">
-        <v>413.5662137851082</v>
+        <v>413.5662137851097</v>
       </c>
       <c r="P15" t="n">
-        <v>312.3949974633269</v>
+        <v>312.3949974633281</v>
       </c>
       <c r="Q15" t="n">
-        <v>158.404352046537</v>
+        <v>158.4043520465378</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.19322646531253</v>
+        <v>45.1932264653129</v>
       </c>
       <c r="K16" t="n">
-        <v>205.4146738058224</v>
+        <v>205.414673805823</v>
       </c>
       <c r="L16" t="n">
-        <v>318.947368354284</v>
+        <v>318.9473683542848</v>
       </c>
       <c r="M16" t="n">
-        <v>346.7793439405178</v>
+        <v>346.7793439405186</v>
       </c>
       <c r="N16" t="n">
-        <v>344.0232177687825</v>
+        <v>344.0232177687833</v>
       </c>
       <c r="O16" t="n">
-        <v>301.5830471035354</v>
+        <v>301.5830471035362</v>
       </c>
       <c r="P16" t="n">
-        <v>234.2981320007469</v>
+        <v>234.2981320007475</v>
       </c>
       <c r="Q16" t="n">
-        <v>77.93802322981092</v>
+        <v>77.93802322981138</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,13 +35881,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>358.8527477856495</v>
+        <v>189.7561326135757</v>
       </c>
       <c r="K17" t="n">
-        <v>455.0473831687826</v>
+        <v>335.6462821161039</v>
       </c>
       <c r="L17" t="n">
-        <v>453.6733997667469</v>
+        <v>639.4023452616409</v>
       </c>
       <c r="M17" t="n">
         <v>986.3019349907253</v>
@@ -35896,16 +35896,16 @@
         <v>987.4815359449802</v>
       </c>
       <c r="O17" t="n">
-        <v>506.006552833649</v>
+        <v>886.8067340963944</v>
       </c>
       <c r="P17" t="n">
         <v>397.0153901510453</v>
       </c>
       <c r="Q17" t="n">
-        <v>461.797674555089</v>
+        <v>249.4826838951843</v>
       </c>
       <c r="R17" t="n">
-        <v>124.5666583207921</v>
+        <v>58.85023844780966</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.00952640581281</v>
+        <v>94.00952640581153</v>
       </c>
       <c r="K18" t="n">
         <v>239.6215216435082</v>
@@ -36124,7 +36124,7 @@
         <v>335.6462821161039</v>
       </c>
       <c r="L20" t="n">
-        <v>639.4023452616418</v>
+        <v>871.3346143171973</v>
       </c>
       <c r="M20" t="n">
         <v>986.3019349907253</v>
@@ -36133,7 +36133,7 @@
         <v>987.4815359449802</v>
       </c>
       <c r="O20" t="n">
-        <v>886.8067340963944</v>
+        <v>654.8744650408383</v>
       </c>
       <c r="P20" t="n">
         <v>397.0153901510453</v>
@@ -36200,7 +36200,7 @@
         <v>94.00952640581281</v>
       </c>
       <c r="K21" t="n">
-        <v>239.6215216435069</v>
+        <v>239.6215216435082</v>
       </c>
       <c r="L21" t="n">
         <v>368.9911525934185</v>
@@ -36361,13 +36361,13 @@
         <v>335.6462821161039</v>
       </c>
       <c r="L23" t="n">
-        <v>871.3346143171973</v>
+        <v>639.4023452616418</v>
       </c>
       <c r="M23" t="n">
         <v>986.3019349907253</v>
       </c>
       <c r="N23" t="n">
-        <v>755.5492668894249</v>
+        <v>987.4815359449802</v>
       </c>
       <c r="O23" t="n">
         <v>886.8067340963944</v>
@@ -36452,7 +36452,7 @@
         <v>413.5662137851082</v>
       </c>
       <c r="P24" t="n">
-        <v>312.3949974633254</v>
+        <v>312.3949974633269</v>
       </c>
       <c r="Q24" t="n">
         <v>158.404352046537</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>89.23202080014572</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O29" t="n">
-        <v>852.755584535902</v>
+        <v>641.306058528246</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K31" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L31" t="n">
         <v>319.7573721701981</v>
@@ -37002,13 +37002,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O31" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P31" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37081,7 +37081,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>888.8531821509645</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P32" t="n">
         <v>720.5606943908545</v>
@@ -37090,7 +37090,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
-        <v>89.2320208001448</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>47.86678767275647</v>
+        <v>47.86678767275608</v>
       </c>
       <c r="K37" t="n">
-        <v>208.3360306040098</v>
+        <v>208.3360306040094</v>
       </c>
       <c r="L37" t="n">
-        <v>322.0457432298884</v>
+        <v>322.045743229888</v>
       </c>
       <c r="M37" t="n">
-        <v>349.9217504531741</v>
+        <v>349.9217504531737</v>
       </c>
       <c r="N37" t="n">
-        <v>347.1453172272304</v>
+        <v>347.14531722723</v>
       </c>
       <c r="O37" t="n">
-        <v>304.64150128233</v>
+        <v>304.6415012823296</v>
       </c>
       <c r="P37" t="n">
-        <v>237.2454422048007</v>
+        <v>237.2454422048003</v>
       </c>
       <c r="Q37" t="n">
-        <v>80.68260959758391</v>
+        <v>80.68260959758351</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,25 +37543,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O38" t="n">
-        <v>852.7555845359029</v>
+        <v>852.7555845359043</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R38" t="n">
         <v>125.3296184152072</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004598</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.5535532316588</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K40" t="n">
         <v>253.0227961629121</v>
@@ -37710,13 +37710,13 @@
         <v>394.6085160120763</v>
       </c>
       <c r="N40" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O40" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P40" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q40" t="n">
         <v>125.3693751564862</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L41" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>641.3060585282446</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37935,13 +37935,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.5535532316588</v>
+        <v>92.55355323165882</v>
       </c>
       <c r="K43" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887908</v>
       </c>
       <c r="M43" t="n">
         <v>394.6085160120764</v>
@@ -38096,7 +38096,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L45" t="n">
         <v>370.4021821340054</v>
@@ -38184,7 +38184,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N46" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O46" t="n">
         <v>349.3282668412323</v>
